--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>199.933229368471</v>
+        <v>212.4076363333333</v>
       </c>
       <c r="H2">
-        <v>199.933229368471</v>
+        <v>637.222909</v>
       </c>
       <c r="I2">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="J2">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>28324.49249181707</v>
+        <v>32610.73568035269</v>
       </c>
       <c r="R2">
-        <v>28324.49249181707</v>
+        <v>293496.6211231742</v>
       </c>
       <c r="S2">
-        <v>0.1611967866919118</v>
+        <v>0.1611681888773307</v>
       </c>
       <c r="T2">
-        <v>0.1611967866919118</v>
+        <v>0.1611681888773307</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>199.933229368471</v>
+        <v>212.4076363333333</v>
       </c>
       <c r="H3">
-        <v>199.933229368471</v>
+        <v>637.222909</v>
       </c>
       <c r="I3">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="J3">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>33712.36361378429</v>
+        <v>35854.34585719613</v>
       </c>
       <c r="R3">
-        <v>33712.36361378429</v>
+        <v>322689.1127147652</v>
       </c>
       <c r="S3">
-        <v>0.1918595606929702</v>
+        <v>0.1771987005085323</v>
       </c>
       <c r="T3">
-        <v>0.1918595606929702</v>
+        <v>0.1771987005085323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>199.933229368471</v>
+        <v>212.4076363333333</v>
       </c>
       <c r="H4">
-        <v>199.933229368471</v>
+        <v>637.222909</v>
       </c>
       <c r="I4">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="J4">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>12314.60614463705</v>
+        <v>14462.90463640575</v>
       </c>
       <c r="R4">
-        <v>12314.60614463705</v>
+        <v>130166.1417276517</v>
       </c>
       <c r="S4">
-        <v>0.07008333654929394</v>
+        <v>0.07147830607082623</v>
       </c>
       <c r="T4">
-        <v>0.07008333654929394</v>
+        <v>0.07147830607082624</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>199.933229368471</v>
+        <v>212.4076363333333</v>
       </c>
       <c r="H5">
-        <v>199.933229368471</v>
+        <v>637.222909</v>
       </c>
       <c r="I5">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="J5">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>16031.04027502557</v>
+        <v>19873.42622095859</v>
       </c>
       <c r="R5">
-        <v>16031.04027502557</v>
+        <v>178860.8359886273</v>
       </c>
       <c r="S5">
-        <v>0.09123383871429659</v>
+        <v>0.09821808812331918</v>
       </c>
       <c r="T5">
-        <v>0.09123383871429659</v>
+        <v>0.09821808812331918</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>159.73164665475</v>
+        <v>161.9384456666667</v>
       </c>
       <c r="H6">
-        <v>159.73164665475</v>
+        <v>485.815337</v>
       </c>
       <c r="I6">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="J6">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>22629.14394305041</v>
+        <v>24862.25043169072</v>
       </c>
       <c r="R6">
-        <v>22629.14394305041</v>
+        <v>223760.2538852165</v>
       </c>
       <c r="S6">
-        <v>0.128784135859179</v>
+        <v>0.1228737650314453</v>
       </c>
       <c r="T6">
-        <v>0.128784135859179</v>
+        <v>0.1228737650314453</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>159.73164665475</v>
+        <v>161.9384456666667</v>
       </c>
       <c r="H7">
-        <v>159.73164665475</v>
+        <v>485.815337</v>
       </c>
       <c r="I7">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="J7">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>26933.64864691489</v>
+        <v>27335.16147883549</v>
       </c>
       <c r="R7">
-        <v>26933.64864691489</v>
+        <v>246016.4533095194</v>
       </c>
       <c r="S7">
-        <v>0.1532813912562045</v>
+        <v>0.1350953413439106</v>
       </c>
       <c r="T7">
-        <v>0.1532813912562045</v>
+        <v>0.1350953413439106</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>159.73164665475</v>
+        <v>161.9384456666667</v>
       </c>
       <c r="H8">
-        <v>159.73164665475</v>
+        <v>485.815337</v>
       </c>
       <c r="I8">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="J8">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>9838.446183262495</v>
+        <v>11026.44112554076</v>
       </c>
       <c r="R8">
-        <v>9838.446183262495</v>
+        <v>99237.9701298669</v>
       </c>
       <c r="S8">
-        <v>0.05599132663158542</v>
+        <v>0.05449467817546338</v>
       </c>
       <c r="T8">
-        <v>0.05599132663158542</v>
+        <v>0.05449467817546339</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>159.73164665475</v>
+        <v>161.9384456666667</v>
       </c>
       <c r="H9">
-        <v>159.73164665475</v>
+        <v>485.815337</v>
       </c>
       <c r="I9">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="J9">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>12807.59816068004</v>
+        <v>15151.3938380386</v>
       </c>
       <c r="R9">
-        <v>12807.59816068004</v>
+        <v>136362.5445423474</v>
       </c>
       <c r="S9">
-        <v>0.07288899066203246</v>
+        <v>0.07488094496791861</v>
       </c>
       <c r="T9">
-        <v>0.07288899066203246</v>
+        <v>0.07488094496791861</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.317897560129234</v>
+        <v>0.338549</v>
       </c>
       <c r="H10">
-        <v>0.317897560129234</v>
+        <v>1.015647</v>
       </c>
       <c r="I10">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="J10">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>45.03647084323747</v>
+        <v>51.97709528918266</v>
       </c>
       <c r="R10">
-        <v>45.03647084323747</v>
+        <v>467.793857602644</v>
       </c>
       <c r="S10">
-        <v>0.0002563058944823526</v>
+        <v>0.0002568802615486228</v>
       </c>
       <c r="T10">
-        <v>0.0002563058944823526</v>
+        <v>0.0002568802615486229</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.317897560129234</v>
+        <v>0.338549</v>
       </c>
       <c r="H11">
-        <v>0.317897560129234</v>
+        <v>1.015647</v>
       </c>
       <c r="I11">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="J11">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>53.60328632145652</v>
+        <v>57.14697053809734</v>
       </c>
       <c r="R11">
-        <v>53.60328632145652</v>
+        <v>514.322734842876</v>
       </c>
       <c r="S11">
-        <v>0.0003050602764953895</v>
+        <v>0.000282430725627583</v>
       </c>
       <c r="T11">
-        <v>0.0003050602764953895</v>
+        <v>0.000282430725627583</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.317897560129234</v>
+        <v>0.338549</v>
       </c>
       <c r="H12">
-        <v>0.317897560129234</v>
+        <v>1.015647</v>
       </c>
       <c r="I12">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="J12">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>19.58045323280285</v>
+        <v>23.05191087417667</v>
       </c>
       <c r="R12">
-        <v>19.58045323280285</v>
+        <v>207.46719786759</v>
       </c>
       <c r="S12">
-        <v>0.0001114338110033544</v>
+        <v>0.0001139267375679308</v>
       </c>
       <c r="T12">
-        <v>0.0001114338110033544</v>
+        <v>0.0001139267375679308</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.317897560129234</v>
+        <v>0.338549</v>
       </c>
       <c r="H13">
-        <v>0.317897560129234</v>
+        <v>1.015647</v>
       </c>
       <c r="I13">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="J13">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>25.48965274987838</v>
+        <v>31.675549381477</v>
       </c>
       <c r="R13">
-        <v>25.48965274987838</v>
+        <v>285.079944433293</v>
       </c>
       <c r="S13">
-        <v>0.0001450635035512143</v>
+        <v>0.0001565463280419894</v>
       </c>
       <c r="T13">
-        <v>0.0001450635035512143</v>
+        <v>0.0001565463280419894</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.709918721318</v>
+        <v>43.38855633333333</v>
       </c>
       <c r="H14">
-        <v>28.709918721318</v>
+        <v>130.165669</v>
       </c>
       <c r="I14">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="J14">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>4067.327276367641</v>
+        <v>6661.402417368642</v>
       </c>
       <c r="R14">
-        <v>4067.327276367641</v>
+        <v>59952.62175631779</v>
       </c>
       <c r="S14">
-        <v>0.02314746107328289</v>
+        <v>0.03292186271152425</v>
       </c>
       <c r="T14">
-        <v>0.02314746107328289</v>
+        <v>0.03292186271152425</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.709918721318</v>
+        <v>43.38855633333333</v>
       </c>
       <c r="H15">
-        <v>28.709918721318</v>
+        <v>130.165669</v>
       </c>
       <c r="I15">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="J15">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>4841.012283513376</v>
+        <v>7323.975408202585</v>
       </c>
       <c r="R15">
-        <v>4841.012283513376</v>
+        <v>65915.77867382327</v>
       </c>
       <c r="S15">
-        <v>0.02755055980840168</v>
+        <v>0.03619641897969452</v>
       </c>
       <c r="T15">
-        <v>0.02755055980840168</v>
+        <v>0.03619641897969452</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.709918721318</v>
+        <v>43.38855633333333</v>
       </c>
       <c r="H16">
-        <v>28.709918721318</v>
+        <v>130.165669</v>
       </c>
       <c r="I16">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="J16">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>1768.347075742914</v>
+        <v>2954.340829703214</v>
       </c>
       <c r="R16">
-        <v>1768.347075742914</v>
+        <v>26589.06746732893</v>
       </c>
       <c r="S16">
-        <v>0.01006379430975322</v>
+        <v>0.01460088988843284</v>
       </c>
       <c r="T16">
-        <v>0.01006379430975322</v>
+        <v>0.01460088988843284</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.709918721318</v>
+        <v>43.38855633333333</v>
       </c>
       <c r="H17">
-        <v>28.709918721318</v>
+        <v>130.165669</v>
       </c>
       <c r="I17">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="J17">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>2302.017852499809</v>
+        <v>4059.549308157746</v>
       </c>
       <c r="R17">
-        <v>2302.017852499809</v>
+        <v>36535.94377341971</v>
       </c>
       <c r="S17">
-        <v>0.01310095426555617</v>
+        <v>0.02006303126881585</v>
       </c>
       <c r="T17">
-        <v>0.01310095426555617</v>
+        <v>0.02006303126881585</v>
       </c>
     </row>
   </sheetData>
